--- a/medicine/Mort/Décès_en_1327/Décès_en_1327.xlsx
+++ b/medicine/Mort/Décès_en_1327/Décès_en_1327.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1327</t>
+          <t>Décès_en_1327</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -511,7 +523,7 @@
 21 octobre : Guido Tarlati, évêque d'Arezzo et dernier prince de la cité.
 24 octobre : Asher ben Yehiel, un des principaux décisionnaires de l’époque des Rishonim, des Maîtres médiévaux. Éminent talmudiste, il est l'élève - et le gendre - de Rabbi Meïr de Rothenburg.
 27 octobre : Élisabeth de Burgh, reine consort d'Écosse.
-2 novembre : Jacques II d'Aragon, dit le Juste[1], roi d'Aragon, de Sicile, de Sardaigne et de Corse, de Valence et comte de Barcelone.
+2 novembre : Jacques II d'Aragon, dit le Juste, roi d'Aragon, de Sicile, de Sardaigne et de Corse, de Valence et comte de Barcelone.
 12 novembre : Alain III de Châteaugiron, évêque de Rennes.
 16 novembre : Walter Reynolds, évêque de Worcester puis archevêque de Cantorbéry ainsi que lord trésorier et lord chancelier.
 Anne d'Autriche, princesse du Saint-Empire.
